--- a/Global_SuperShop_Project/CustomerTable.xlsx
+++ b/Global_SuperShop_Project/CustomerTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analysis\Data-Analysis-Project\Global_SuperShop_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3817A230-C4BE-487F-BBA1-F15C77C39444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25747D96-DAF0-4EB1-8D10-9204B47C7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerTable" sheetId="1" r:id="rId1"/>
@@ -7198,7 +7198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7737,12 +7737,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="customerTable" displayName="customerTable" ref="A1:C1591" totalsRowShown="0">
-  <autoFilter ref="A1:C1591"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="customer" displayName="customer" ref="A1:C1591" totalsRowShown="0">
+  <autoFilter ref="A1:C1591" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer_ID"/>
-    <tableColumn id="2" name="Customer_Name"/>
-    <tableColumn id="3" name="Segment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Customer_ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Customer_Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8044,7 +8044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
